--- a/backend/src/excel_handler/files/TGNO4.xlsx
+++ b/backend/src/excel_handler/files/TGNO4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3214775.3</v>
+        <v>10479854.17</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114813.4</v>
+        <v>249520.34</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94033.89</v>
+        <v>105213.15</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89445.2</v>
+        <v>89822.37</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>185220.5</v>
+        <v>184668.17</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>167051.76</v>
+        <v>166947.05</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174324.39</v>
+        <v>174297.32</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>129369.16</v>
+        <v>129458.72</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>82394.71000000001</v>
+        <v>82076.38</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>515442.39</v>
+        <v>503380.59</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>59485.87</v>
+        <v>58976.43</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>106582.62</v>
+        <v>102845.74</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>241092.71</v>
+        <v>240735.55</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>35664.29</v>
+        <v>35643.58</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>534034.3</v>
+        <v>533753.6</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>26001.46</v>
+        <v>26015.56</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>80607.89</v>
+        <v>77403.41</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>84215.39999999999</v>
+        <v>83696.41</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>80680.64999999999</v>
+        <v>80830.81</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>97108.45</v>
+        <v>97250.85000000001</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53937.4</v>
+        <v>53933.11</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>11620.68</v>
+        <v>12509.1</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5978.06</v>
+        <v>6058.94</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>146927.02</v>
+        <v>147074.33</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9932.389999999999</v>
+        <v>9968.58</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4081.15</v>
+        <v>4082.1</v>
       </c>
     </row>
     <row r="28">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>172019.04</v>
+        <v>171847.31</v>
       </c>
     </row>
     <row r="29">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>15273.63</v>
+        <v>15374.46</v>
       </c>
     </row>
     <row r="30">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1064.52</v>
+        <v>1064.32</v>
       </c>
     </row>
     <row r="31">
@@ -737,7 +737,147 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11185.77</v>
+        <v>11187.52</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>CMA acciones</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>239664.3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Delta Recursos</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>55313.81</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>282151.74</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>11314.4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>5661.35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Superfondo</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1147292.25</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>3500.31</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2253226.14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>14932.06</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>209.57</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1064.32</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Schroeder RV</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>145179.11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>865832.3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Galileo</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>2248397.05</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGNO4.xlsx
+++ b/backend/src/excel_handler/files/TGNO4.xlsx
@@ -793,7 +793,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Superfondo</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B37" t="n">

--- a/backend/src/excel_handler/files/TGNO4.xlsx
+++ b/backend/src/excel_handler/files/TGNO4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,38 +436,52 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10479854.17</v>
+        <v>162717.92</v>
+      </c>
+      <c r="C2" t="n">
+        <v>162595.14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>249520.34</v>
+        <v>105297</v>
+      </c>
+      <c r="C3" t="n">
+        <v>105900.95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105213.15</v>
+        <v>14596.59</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14549.89</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +491,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89822.37</v>
+        <v>59971.23</v>
+      </c>
+      <c r="C5" t="n">
+        <v>59812.55</v>
       </c>
     </row>
     <row r="6">
@@ -487,117 +504,151 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>184668.17</v>
+        <v>155227.84</v>
+      </c>
+      <c r="C6" t="n">
+        <v>155546.84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>166947.05</v>
+        <v>3500.08</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3508.12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174297.32</v>
+        <v>2254892.85</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2254534.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>129458.72</v>
+        <v>4063.44</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4047.73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>82076.38</v>
+        <v>173563.09</v>
+      </c>
+      <c r="C10" t="n">
+        <v>173253.59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>503380.59</v>
-      </c>
+        <v>174305.73</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>58976.43</v>
+        <v>239580.19</v>
+      </c>
+      <c r="C12" t="n">
+        <v>239473.66</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>102845.74</v>
+        <v>129434.01</v>
+      </c>
+      <c r="C13" t="n">
+        <v>129884.71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>240735.55</v>
+        <v>82291.89999999999</v>
+      </c>
+      <c r="C14" t="n">
+        <v>82377.64999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Delta Recursos</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>35643.58</v>
+        <v>55486.75</v>
+      </c>
+      <c r="C15" t="n">
+        <v>55062.08</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>533753.6</v>
+        <v>281659.03</v>
+      </c>
+      <c r="C16" t="n">
+        <v>281730.16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>26015.56</v>
+        <v>15002.88</v>
+      </c>
+      <c r="C17" t="n">
+        <v>14993.7</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +658,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>77403.41</v>
+        <v>77633.94</v>
+      </c>
+      <c r="C18" t="n">
+        <v>85623.34</v>
       </c>
     </row>
     <row r="19">
@@ -617,267 +671,346 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>83696.41</v>
+        <v>83633.27</v>
+      </c>
+      <c r="C19" t="n">
+        <v>84223.53999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>80830.81</v>
+        <v>529297.52</v>
+      </c>
+      <c r="C20" t="n">
+        <v>543283.66</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>97250.85000000001</v>
+        <v>109188.92</v>
+      </c>
+      <c r="C21" t="n">
+        <v>109272.56</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Gainvest</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53933.11</v>
+        <v>172127.71</v>
+      </c>
+      <c r="C22" t="n">
+        <v>171937.25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>12509.1</v>
+          <t>Galileo</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>2176293.29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6058.94</v>
+        <v>15305</v>
+      </c>
+      <c r="C24" t="n">
+        <v>15344.86</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>147074.33</v>
+        <v>194.52</v>
+      </c>
+      <c r="C25" t="n">
+        <v>207.54</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9968.58</v>
+        <v>95046.83</v>
+      </c>
+      <c r="C26" t="n">
+        <v>85120.96000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4082.1</v>
+        <v>246451.68</v>
+      </c>
+      <c r="C27" t="n">
+        <v>246682.29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171847.31</v>
+        <v>13161.83</v>
+      </c>
+      <c r="C28" t="n">
+        <v>13156.36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>15374.46</v>
+        <v>1064.93</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1515.67</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1064.32</v>
+        <v>1064.93</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1515.67</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11187.52</v>
+        <v>8322.799999999999</v>
+      </c>
+      <c r="C31" t="n">
+        <v>8237.93</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>239664.3</v>
+        <v>5751.09</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5651.52</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>55313.81</v>
+        <v>11146.36</v>
+      </c>
+      <c r="C33" t="n">
+        <v>11156.19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>282151.74</v>
+        <v>80569.48</v>
+      </c>
+      <c r="C34" t="n">
+        <v>80672.07000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>11314.4</v>
+        <v>97277.61</v>
+      </c>
+      <c r="C35" t="n">
+        <v>97188</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5661.35</v>
+        <v>6013.1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>13909.42</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1147292.25</v>
+        <v>35900.86</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35865.85</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3500.31</v>
+        <v>25922.49</v>
+      </c>
+      <c r="C38" t="n">
+        <v>25897.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2253226.14</v>
+        <v>533917.87</v>
+      </c>
+      <c r="C39" t="n">
+        <v>627484.72</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>14932.06</v>
+        <v>145801.64</v>
+      </c>
+      <c r="C40" t="n">
+        <v>144671</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>209.57</v>
+        <v>866724.55</v>
+      </c>
+      <c r="C41" t="n">
+        <v>867068.76</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1064.32</v>
+        <v>1219126.73</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1265925.81</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>145179.11</v>
+        <v>53898.83</v>
+      </c>
+      <c r="C43" t="n">
+        <v>53884.9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>865832.3</v>
+        <v>203564.27</v>
+      </c>
+      <c r="C44" t="n">
+        <v>256318.59</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Galileo</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2248397.05</v>
+        <v>8346135.02</v>
+      </c>
+      <c r="C45" t="n">
+        <v>10509062.13</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGNO4.xlsx
+++ b/backend/src/excel_handler/files/TGNO4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,569 +443,441 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>162717.92</v>
-      </c>
-      <c r="C2" t="n">
-        <v>162595.14</v>
+        <v>10729399.19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105297</v>
-      </c>
-      <c r="C3" t="n">
-        <v>105900.95</v>
+        <v>255461.89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14596.59</v>
-      </c>
-      <c r="C4" t="n">
-        <v>14549.89</v>
+        <v>162595.14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59971.23</v>
-      </c>
-      <c r="C5" t="n">
-        <v>59812.55</v>
+        <v>105900.95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>155227.84</v>
-      </c>
-      <c r="C6" t="n">
-        <v>155546.84</v>
+        <v>14549.89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3500.08</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3508.12</v>
+        <v>59812.55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2254892.85</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2254534.9</v>
+        <v>155546.84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Alpha Recursos Naturales</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4063.44</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4047.73</v>
+        <v>47547.14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>173563.09</v>
-      </c>
-      <c r="C10" t="n">
-        <v>173253.59</v>
+        <v>3508.12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>174305.73</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
+        <v>2254534.9</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>239580.19</v>
-      </c>
-      <c r="C12" t="n">
-        <v>239473.66</v>
+        <v>4047.73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>129434.01</v>
-      </c>
-      <c r="C13" t="n">
-        <v>129884.71</v>
+        <v>173253.59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>82291.89999999999</v>
-      </c>
-      <c r="C14" t="n">
-        <v>82377.64999999999</v>
+        <v>174305.59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>55486.75</v>
-      </c>
-      <c r="C15" t="n">
-        <v>55062.08</v>
+        <v>239473.66</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>281659.03</v>
-      </c>
-      <c r="C16" t="n">
-        <v>281730.16</v>
+        <v>129884.71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>15002.88</v>
-      </c>
-      <c r="C17" t="n">
-        <v>14993.7</v>
+        <v>82377.64999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>77633.94</v>
-      </c>
-      <c r="C18" t="n">
-        <v>85623.34</v>
+        <v>55062.08</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>83633.27</v>
-      </c>
-      <c r="C19" t="n">
-        <v>84223.53999999999</v>
+        <v>281730.16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>529297.52</v>
-      </c>
-      <c r="C20" t="n">
-        <v>543283.66</v>
+        <v>14993.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>109188.92</v>
-      </c>
-      <c r="C21" t="n">
-        <v>109272.56</v>
+        <v>85623.34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>172127.71</v>
-      </c>
-      <c r="C22" t="n">
-        <v>171937.25</v>
+        <v>84223.53999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Galileo</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="n">
-        <v>2176293.29</v>
+          <t>Fima Acciones</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>543283.66</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>15305</v>
-      </c>
-      <c r="C24" t="n">
-        <v>15344.86</v>
+        <v>109272.56</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>194.52</v>
-      </c>
-      <c r="C25" t="n">
-        <v>207.54</v>
+        <v>171937.25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>95046.83</v>
-      </c>
-      <c r="C26" t="n">
-        <v>85120.96000000001</v>
+        <v>2176293.29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>246451.68</v>
-      </c>
-      <c r="C27" t="n">
-        <v>246682.29</v>
+        <v>15344.86</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13161.83</v>
-      </c>
-      <c r="C28" t="n">
-        <v>13156.36</v>
+        <v>207.54</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1064.93</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1515.67</v>
+        <v>85120.96000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1064.93</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1515.67</v>
+        <v>246682.29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8322.799999999999</v>
-      </c>
-      <c r="C31" t="n">
-        <v>8237.93</v>
+        <v>13156.36</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5751.09</v>
-      </c>
-      <c r="C32" t="n">
-        <v>5651.52</v>
+        <v>1515.67</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>11146.36</v>
-      </c>
-      <c r="C33" t="n">
-        <v>11156.19</v>
+        <v>8237.93</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80569.48</v>
-      </c>
-      <c r="C34" t="n">
-        <v>80672.07000000001</v>
+        <v>5651.52</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97277.61</v>
-      </c>
-      <c r="C35" t="n">
-        <v>97188</v>
+        <v>11156.19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6013.1</v>
-      </c>
-      <c r="C36" t="n">
-        <v>13909.42</v>
+        <v>80672.07000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35900.86</v>
-      </c>
-      <c r="C37" t="n">
-        <v>35865.85</v>
+        <v>97188</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>25922.49</v>
-      </c>
-      <c r="C38" t="n">
-        <v>25897.3</v>
+        <v>13909.42</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>533917.87</v>
-      </c>
-      <c r="C39" t="n">
-        <v>627484.72</v>
+        <v>35865.85</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>145801.64</v>
-      </c>
-      <c r="C40" t="n">
-        <v>144671</v>
+        <v>25897.3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>866724.55</v>
-      </c>
-      <c r="C41" t="n">
-        <v>867068.76</v>
+        <v>627484.72</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1219126.73</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1265925.81</v>
+        <v>144671</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53898.83</v>
-      </c>
-      <c r="C43" t="n">
-        <v>53884.9</v>
+        <v>867068.76</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>203564.27</v>
-      </c>
-      <c r="C44" t="n">
-        <v>256318.59</v>
+        <v>1265925.81</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>8346135.02</v>
-      </c>
-      <c r="C45" t="n">
-        <v>10509062.13</v>
+        <v>53884.9</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGNO4.xlsx
+++ b/backend/src/excel_handler/files/TGNO4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,445 +439,564 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10729399.19</v>
+        <v>162595.14</v>
+      </c>
+      <c r="C2" t="n">
+        <v>175154.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>255461.89</v>
+        <v>105900.95</v>
+      </c>
+      <c r="C3" t="n">
+        <v>106013.87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>162595.14</v>
+        <v>14549.89</v>
+      </c>
+      <c r="C4" t="n">
+        <v>19650.54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>105900.95</v>
+        <v>59812.55</v>
+      </c>
+      <c r="C5" t="n">
+        <v>60176.39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14549.89</v>
+        <v>155546.84</v>
+      </c>
+      <c r="C6" t="n">
+        <v>155895.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Recursos Naturales</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59812.55</v>
+        <v>47547.14</v>
+      </c>
+      <c r="C7" t="n">
+        <v>47583.01</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>155546.84</v>
+        <v>3508.12</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3526.11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha Recursos Naturales</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>47547.14</v>
+        <v>2254534.9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2253545.88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3508.12</v>
+        <v>4047.73</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4047.65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2254534.9</v>
+        <v>173253.59</v>
+      </c>
+      <c r="C11" t="n">
+        <v>167767.16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4047.73</v>
+        <v>174305.59</v>
+      </c>
+      <c r="C12" t="n">
+        <v>174378.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>173253.59</v>
+        <v>239473.66</v>
+      </c>
+      <c r="C13" t="n">
+        <v>239553.76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>174305.59</v>
-      </c>
+        <v>129884.71</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>239473.66</v>
-      </c>
+        <v>82377.64999999999</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>129884.71</v>
-      </c>
+        <v>55062.08</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82377.64999999999</v>
-      </c>
+        <v>281730.16</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>55062.08</v>
-      </c>
+        <v>14993.7</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>281730.16</v>
-      </c>
+        <v>85623.34</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>14993.7</v>
-      </c>
+        <v>84223.53999999999</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>85623.34</v>
-      </c>
+        <v>543283.66</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>84223.53999999999</v>
+        <v>109272.56</v>
+      </c>
+      <c r="C22" t="n">
+        <v>109035.91</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>543283.66</v>
+        <v>171937.25</v>
+      </c>
+      <c r="C23" t="n">
+        <v>171878.09</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>109272.56</v>
+        <v>2176293.29</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2128678.99</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>171937.25</v>
+        <v>15344.86</v>
+      </c>
+      <c r="C25" t="n">
+        <v>15357.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Galileo Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2176293.29</v>
+        <v>207.54</v>
+      </c>
+      <c r="C26" t="n">
+        <v>209.95</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15344.86</v>
+        <v>85120.96000000001</v>
+      </c>
+      <c r="C27" t="n">
+        <v>85281.75999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>207.54</v>
+        <v>246682.29</v>
+      </c>
+      <c r="C28" t="n">
+        <v>246972.87</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>85120.96000000001</v>
+        <v>13156.36</v>
+      </c>
+      <c r="C29" t="n">
+        <v>13822.98</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>246682.29</v>
+        <v>1515.67</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1523.69</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13156.36</v>
+        <v>8237.93</v>
+      </c>
+      <c r="C31" t="n">
+        <v>8365.32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1515.67</v>
+        <v>5651.52</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5755.53</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>8237.93</v>
+        <v>11156.19</v>
+      </c>
+      <c r="C33" t="n">
+        <v>11149.77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5651.52</v>
-      </c>
+        <v>80672.07000000001</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>11156.19</v>
+        <v>97188</v>
+      </c>
+      <c r="C35" t="n">
+        <v>97435.21000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>80672.07000000001</v>
+        <v>13909.42</v>
+      </c>
+      <c r="C36" t="n">
+        <v>14034.81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97188</v>
+        <v>35865.85</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35784.66</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>13909.42</v>
+        <v>25897.3</v>
+      </c>
+      <c r="C38" t="n">
+        <v>25903.55</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>35865.85</v>
+        <v>627484.72</v>
+      </c>
+      <c r="C39" t="n">
+        <v>627541.64</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>25897.3</v>
+        <v>144671</v>
+      </c>
+      <c r="C40" t="n">
+        <v>146035.78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>627484.72</v>
+        <v>867068.76</v>
+      </c>
+      <c r="C41" t="n">
+        <v>866934.7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>144671</v>
+        <v>1265925.81</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1267114.6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>867068.76</v>
+        <v>53884.9</v>
+      </c>
+      <c r="C43" t="n">
+        <v>53940.11</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1265925.81</v>
+        <v>255461.89</v>
+      </c>
+      <c r="C44" t="n">
+        <v>283031.79</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>53884.9</v>
+        <v>10729399.19</v>
+      </c>
+      <c r="C45" t="n">
+        <v>9340049.189999999</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGNO4.xlsx
+++ b/backend/src/excel_handler/files/TGNO4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>175154.2</v>
       </c>
+      <c r="D2" t="n">
+        <v>188161.29</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>106013.87</v>
       </c>
+      <c r="D3" t="n">
+        <v>106021.72</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +494,9 @@
       <c r="C4" t="n">
         <v>19650.54</v>
       </c>
+      <c r="D4" t="n">
+        <v>19573.92</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -496,6 +510,9 @@
       <c r="C5" t="n">
         <v>60176.39</v>
       </c>
+      <c r="D5" t="n">
+        <v>59975.41</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -509,6 +526,9 @@
       <c r="C6" t="n">
         <v>155895.1</v>
       </c>
+      <c r="D6" t="n">
+        <v>155849</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -522,6 +542,9 @@
       <c r="C7" t="n">
         <v>47583.01</v>
       </c>
+      <c r="D7" t="n">
+        <v>52577.63</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -535,6 +558,9 @@
       <c r="C8" t="n">
         <v>3526.11</v>
       </c>
+      <c r="D8" t="n">
+        <v>3501.35</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -548,6 +574,9 @@
       <c r="C9" t="n">
         <v>2253545.88</v>
       </c>
+      <c r="D9" t="n">
+        <v>2253712.06</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -561,6 +590,9 @@
       <c r="C10" t="n">
         <v>4047.65</v>
       </c>
+      <c r="D10" t="n">
+        <v>4041.51</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -574,6 +606,9 @@
       <c r="C11" t="n">
         <v>167767.16</v>
       </c>
+      <c r="D11" t="n">
+        <v>168415.99</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -587,6 +622,9 @@
       <c r="C12" t="n">
         <v>174378.3</v>
       </c>
+      <c r="D12" t="n">
+        <v>174333.96</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -600,6 +638,9 @@
       <c r="C13" t="n">
         <v>239553.76</v>
       </c>
+      <c r="D13" t="n">
+        <v>237483.51</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -611,6 +652,9 @@
         <v>129884.71</v>
       </c>
       <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>129519.06</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -622,6 +666,9 @@
         <v>82377.64999999999</v>
       </c>
       <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>82522.14</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -633,6 +680,9 @@
         <v>55062.08</v>
       </c>
       <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>52360.83</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -644,6 +694,9 @@
         <v>281730.16</v>
       </c>
       <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>263330.22</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -655,6 +708,9 @@
         <v>14993.7</v>
       </c>
       <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>16182.92</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -666,6 +722,9 @@
         <v>85623.34</v>
       </c>
       <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>85455.85000000001</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -677,6 +736,9 @@
         <v>84223.53999999999</v>
       </c>
       <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>83644.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -688,6 +750,9 @@
         <v>543283.66</v>
       </c>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>563957.96</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -701,6 +766,9 @@
       <c r="C22" t="n">
         <v>109035.91</v>
       </c>
+      <c r="D22" t="n">
+        <v>108962.1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -714,6 +782,9 @@
       <c r="C23" t="n">
         <v>171878.09</v>
       </c>
+      <c r="D23" t="n">
+        <v>142182.1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -727,6 +798,9 @@
       <c r="C24" t="n">
         <v>2128678.99</v>
       </c>
+      <c r="D24" t="n">
+        <v>2125656.99</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -740,6 +814,9 @@
       <c r="C25" t="n">
         <v>15357.3</v>
       </c>
+      <c r="D25" t="n">
+        <v>12353.54</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -753,6 +830,9 @@
       <c r="C26" t="n">
         <v>209.95</v>
       </c>
+      <c r="D26" t="n">
+        <v>214.72</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -766,6 +846,9 @@
       <c r="C27" t="n">
         <v>85281.75999999999</v>
       </c>
+      <c r="D27" t="n">
+        <v>78108.13</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -779,6 +862,9 @@
       <c r="C28" t="n">
         <v>246972.87</v>
       </c>
+      <c r="D28" t="n">
+        <v>196486.76</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -792,6 +878,9 @@
       <c r="C29" t="n">
         <v>13822.98</v>
       </c>
+      <c r="D29" t="n">
+        <v>17669.17</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -805,6 +894,9 @@
       <c r="C30" t="n">
         <v>1523.69</v>
       </c>
+      <c r="D30" t="n">
+        <v>1779.92</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -818,6 +910,9 @@
       <c r="C31" t="n">
         <v>8365.32</v>
       </c>
+      <c r="D31" t="n">
+        <v>8254.389999999999</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -831,6 +926,9 @@
       <c r="C32" t="n">
         <v>5755.53</v>
       </c>
+      <c r="D32" t="n">
+        <v>5757.71</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -844,6 +942,9 @@
       <c r="C33" t="n">
         <v>11149.77</v>
       </c>
+      <c r="D33" t="n">
+        <v>11128.7</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -855,6 +956,9 @@
         <v>80672.07000000001</v>
       </c>
       <c r="C34" t="inlineStr"/>
+      <c r="D34" t="n">
+        <v>80650.71000000001</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -868,6 +972,9 @@
       <c r="C35" t="n">
         <v>97435.21000000001</v>
       </c>
+      <c r="D35" t="n">
+        <v>96966.10000000001</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -881,6 +988,9 @@
       <c r="C36" t="n">
         <v>14034.81</v>
       </c>
+      <c r="D36" t="n">
+        <v>13924.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -894,6 +1004,9 @@
       <c r="C37" t="n">
         <v>35784.66</v>
       </c>
+      <c r="D37" t="n">
+        <v>35766.13</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -907,6 +1020,9 @@
       <c r="C38" t="n">
         <v>25903.55</v>
       </c>
+      <c r="D38" t="n">
+        <v>24428.18</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -920,6 +1036,9 @@
       <c r="C39" t="n">
         <v>627541.64</v>
       </c>
+      <c r="D39" t="n">
+        <v>627578.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -933,6 +1052,9 @@
       <c r="C40" t="n">
         <v>146035.78</v>
       </c>
+      <c r="D40" t="n">
+        <v>144592.56</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -946,6 +1068,9 @@
       <c r="C41" t="n">
         <v>866934.7</v>
       </c>
+      <c r="D41" t="n">
+        <v>884941.74</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -959,6 +1084,9 @@
       <c r="C42" t="n">
         <v>1267114.6</v>
       </c>
+      <c r="D42" t="n">
+        <v>1265721.43</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -972,6 +1100,9 @@
       <c r="C43" t="n">
         <v>53940.11</v>
       </c>
+      <c r="D43" t="n">
+        <v>53859.2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -985,6 +1116,9 @@
       <c r="C44" t="n">
         <v>283031.79</v>
       </c>
+      <c r="D44" t="n">
+        <v>253276.3</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -997,6 +1131,9 @@
       </c>
       <c r="C45" t="n">
         <v>9340049.189999999</v>
+      </c>
+      <c r="D45" t="n">
+        <v>10637604.56</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGNO4.xlsx
+++ b/backend/src/excel_handler/files/TGNO4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>188161.29</v>
       </c>
+      <c r="E2" t="n">
+        <v>187889.64</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>106021.72</v>
       </c>
+      <c r="E3" t="n">
+        <v>105383.84</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -497,6 +508,9 @@
       <c r="D4" t="n">
         <v>19573.92</v>
       </c>
+      <c r="E4" t="n">
+        <v>19622.01</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -513,6 +527,9 @@
       <c r="D5" t="n">
         <v>59975.41</v>
       </c>
+      <c r="E5" t="n">
+        <v>60029.71</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -529,6 +546,9 @@
       <c r="D6" t="n">
         <v>155849</v>
       </c>
+      <c r="E6" t="n">
+        <v>155748.42</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -545,6 +565,9 @@
       <c r="D7" t="n">
         <v>52577.63</v>
       </c>
+      <c r="E7" t="n">
+        <v>52663.05</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -561,6 +584,9 @@
       <c r="D8" t="n">
         <v>3501.35</v>
       </c>
+      <c r="E8" t="n">
+        <v>3478.16</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -577,6 +603,9 @@
       <c r="D9" t="n">
         <v>2253712.06</v>
       </c>
+      <c r="E9" t="n">
+        <v>2254583.86</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -593,6 +622,9 @@
       <c r="D10" t="n">
         <v>4041.51</v>
       </c>
+      <c r="E10" t="n">
+        <v>4067.34</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -609,6 +641,9 @@
       <c r="D11" t="n">
         <v>168415.99</v>
       </c>
+      <c r="E11" t="n">
+        <v>181919.6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -625,6 +660,9 @@
       <c r="D12" t="n">
         <v>174333.96</v>
       </c>
+      <c r="E12" t="n">
+        <v>178618.54</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -640,6 +678,9 @@
       </c>
       <c r="D13" t="n">
         <v>237483.51</v>
+      </c>
+      <c r="E13" t="n">
+        <v>237497.9</v>
       </c>
     </row>
     <row r="14">
@@ -655,6 +696,9 @@
       <c r="D14" t="n">
         <v>129519.06</v>
       </c>
+      <c r="E14" t="n">
+        <v>130017.71</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -669,6 +713,9 @@
       <c r="D15" t="n">
         <v>82522.14</v>
       </c>
+      <c r="E15" t="n">
+        <v>82182.83</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -683,6 +730,9 @@
       <c r="D16" t="n">
         <v>52360.83</v>
       </c>
+      <c r="E16" t="n">
+        <v>52373.61</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -697,6 +747,9 @@
       <c r="D17" t="n">
         <v>263330.22</v>
       </c>
+      <c r="E17" t="n">
+        <v>260438.59</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -711,6 +764,9 @@
       <c r="D18" t="n">
         <v>16182.92</v>
       </c>
+      <c r="E18" t="n">
+        <v>16025.4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -725,6 +781,9 @@
       <c r="D19" t="n">
         <v>85455.85000000001</v>
       </c>
+      <c r="E19" t="n">
+        <v>88670.83</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -739,6 +798,9 @@
       <c r="D20" t="n">
         <v>83644.95</v>
       </c>
+      <c r="E20" t="n">
+        <v>84041.56</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -753,6 +815,9 @@
       <c r="D21" t="n">
         <v>563957.96</v>
       </c>
+      <c r="E21" t="n">
+        <v>630396.21</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -769,6 +834,9 @@
       <c r="D22" t="n">
         <v>108962.1</v>
       </c>
+      <c r="E22" t="n">
+        <v>109328.1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -785,6 +853,9 @@
       <c r="D23" t="n">
         <v>142182.1</v>
       </c>
+      <c r="E23" t="n">
+        <v>141906.13</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -801,6 +872,9 @@
       <c r="D24" t="n">
         <v>2125656.99</v>
       </c>
+      <c r="E24" t="n">
+        <v>2128070.89</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -817,6 +891,9 @@
       <c r="D25" t="n">
         <v>12353.54</v>
       </c>
+      <c r="E25" t="n">
+        <v>12313.98</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -833,6 +910,9 @@
       <c r="D26" t="n">
         <v>214.72</v>
       </c>
+      <c r="E26" t="n">
+        <v>210.16</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -849,6 +929,9 @@
       <c r="D27" t="n">
         <v>78108.13</v>
       </c>
+      <c r="E27" t="n">
+        <v>77839.28999999999</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -865,6 +948,9 @@
       <c r="D28" t="n">
         <v>196486.76</v>
       </c>
+      <c r="E28" t="n">
+        <v>196984.82</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -881,6 +967,9 @@
       <c r="D29" t="n">
         <v>17669.17</v>
       </c>
+      <c r="E29" t="n">
+        <v>18493.48</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -897,6 +986,9 @@
       <c r="D30" t="n">
         <v>1779.92</v>
       </c>
+      <c r="E30" t="n">
+        <v>1774.15</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -913,6 +1005,9 @@
       <c r="D31" t="n">
         <v>8254.389999999999</v>
       </c>
+      <c r="E31" t="n">
+        <v>12904.01</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -929,6 +1024,9 @@
       <c r="D32" t="n">
         <v>5757.71</v>
       </c>
+      <c r="E32" t="n">
+        <v>5724.26</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -944,6 +1042,9 @@
       </c>
       <c r="D33" t="n">
         <v>11128.7</v>
+      </c>
+      <c r="E33" t="n">
+        <v>11126.37</v>
       </c>
     </row>
     <row r="34">
@@ -959,6 +1060,9 @@
       <c r="D34" t="n">
         <v>80650.71000000001</v>
       </c>
+      <c r="E34" t="n">
+        <v>80520.37</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -975,6 +1079,9 @@
       <c r="D35" t="n">
         <v>96966.10000000001</v>
       </c>
+      <c r="E35" t="n">
+        <v>97026.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -991,6 +1098,9 @@
       <c r="D36" t="n">
         <v>13924.2</v>
       </c>
+      <c r="E36" t="n">
+        <v>14005.69</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1007,6 +1117,9 @@
       <c r="D37" t="n">
         <v>35766.13</v>
       </c>
+      <c r="E37" t="n">
+        <v>35836.88</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1023,6 +1136,9 @@
       <c r="D38" t="n">
         <v>24428.18</v>
       </c>
+      <c r="E38" t="n">
+        <v>23961.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1039,6 +1155,9 @@
       <c r="D39" t="n">
         <v>627578.8</v>
       </c>
+      <c r="E39" t="n">
+        <v>627146.88</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1055,6 +1174,9 @@
       <c r="D40" t="n">
         <v>144592.56</v>
       </c>
+      <c r="E40" t="n">
+        <v>157754.16</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1071,6 +1193,7 @@
       <c r="D41" t="n">
         <v>884941.74</v>
       </c>
+      <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1087,6 +1210,9 @@
       <c r="D42" t="n">
         <v>1265721.43</v>
       </c>
+      <c r="E42" t="n">
+        <v>1267389.53</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1103,6 +1229,9 @@
       <c r="D43" t="n">
         <v>53859.2</v>
       </c>
+      <c r="E43" t="n">
+        <v>54008.9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1119,6 +1248,9 @@
       <c r="D44" t="n">
         <v>253276.3</v>
       </c>
+      <c r="E44" t="n">
+        <v>240487.18</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1134,6 +1266,9 @@
       </c>
       <c r="D45" t="n">
         <v>10637604.56</v>
+      </c>
+      <c r="E45" t="n">
+        <v>9859974.52</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGNO4.xlsx
+++ b/backend/src/excel_handler/files/TGNO4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>187889.64</v>
       </c>
+      <c r="F2" t="n">
+        <v>188446.39</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>105383.84</v>
       </c>
+      <c r="F3" t="n">
+        <v>105686.62</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -511,6 +522,9 @@
       <c r="E4" t="n">
         <v>19622.01</v>
       </c>
+      <c r="F4" t="n">
+        <v>19569.24</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -530,6 +544,9 @@
       <c r="E5" t="n">
         <v>60029.71</v>
       </c>
+      <c r="F5" t="n">
+        <v>60127.86</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -549,6 +566,9 @@
       <c r="E6" t="n">
         <v>155748.42</v>
       </c>
+      <c r="F6" t="n">
+        <v>155038.93</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -568,6 +588,9 @@
       <c r="E7" t="n">
         <v>52663.05</v>
       </c>
+      <c r="F7" t="n">
+        <v>52637.31</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -587,6 +610,9 @@
       <c r="E8" t="n">
         <v>3478.16</v>
       </c>
+      <c r="F8" t="n">
+        <v>3468.24</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -606,6 +632,9 @@
       <c r="E9" t="n">
         <v>2254583.86</v>
       </c>
+      <c r="F9" t="n">
+        <v>2254129.98</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -625,6 +654,9 @@
       <c r="E10" t="n">
         <v>4067.34</v>
       </c>
+      <c r="F10" t="n">
+        <v>4060.98</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -644,6 +676,9 @@
       <c r="E11" t="n">
         <v>181919.6</v>
       </c>
+      <c r="F11" t="n">
+        <v>182528.74</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -663,6 +698,9 @@
       <c r="E12" t="n">
         <v>178618.54</v>
       </c>
+      <c r="F12" t="n">
+        <v>189738.7</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -681,6 +719,9 @@
       </c>
       <c r="E13" t="n">
         <v>237497.9</v>
+      </c>
+      <c r="F13" t="n">
+        <v>237252.39</v>
       </c>
     </row>
     <row r="14">
@@ -699,6 +740,9 @@
       <c r="E14" t="n">
         <v>130017.71</v>
       </c>
+      <c r="F14" t="n">
+        <v>130505.84</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -716,6 +760,9 @@
       <c r="E15" t="n">
         <v>82182.83</v>
       </c>
+      <c r="F15" t="n">
+        <v>82282.49000000001</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -733,6 +780,9 @@
       <c r="E16" t="n">
         <v>52373.61</v>
       </c>
+      <c r="F16" t="n">
+        <v>52176.82</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -750,6 +800,9 @@
       <c r="E17" t="n">
         <v>260438.59</v>
       </c>
+      <c r="F17" t="n">
+        <v>261200.32</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -767,6 +820,9 @@
       <c r="E18" t="n">
         <v>16025.4</v>
       </c>
+      <c r="F18" t="n">
+        <v>15748.17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -784,6 +840,9 @@
       <c r="E19" t="n">
         <v>88670.83</v>
       </c>
+      <c r="F19" t="n">
+        <v>88823.83</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -801,6 +860,9 @@
       <c r="E20" t="n">
         <v>84041.56</v>
       </c>
+      <c r="F20" t="n">
+        <v>83641.81</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -818,6 +880,9 @@
       <c r="E21" t="n">
         <v>630396.21</v>
       </c>
+      <c r="F21" t="n">
+        <v>624578.16</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -837,6 +902,9 @@
       <c r="E22" t="n">
         <v>109328.1</v>
       </c>
+      <c r="F22" t="n">
+        <v>109170.21</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -856,6 +924,9 @@
       <c r="E23" t="n">
         <v>141906.13</v>
       </c>
+      <c r="F23" t="n">
+        <v>142038.74</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -875,6 +946,9 @@
       <c r="E24" t="n">
         <v>2128070.89</v>
       </c>
+      <c r="F24" t="n">
+        <v>1949476.81</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -894,6 +968,9 @@
       <c r="E25" t="n">
         <v>12313.98</v>
       </c>
+      <c r="F25" t="n">
+        <v>12308.22</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -913,6 +990,9 @@
       <c r="E26" t="n">
         <v>210.16</v>
       </c>
+      <c r="F26" t="n">
+        <v>190.72</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -932,6 +1012,9 @@
       <c r="E27" t="n">
         <v>77839.28999999999</v>
       </c>
+      <c r="F27" t="n">
+        <v>73093.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -951,6 +1034,9 @@
       <c r="E28" t="n">
         <v>196984.82</v>
       </c>
+      <c r="F28" t="n">
+        <v>196677.13</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -970,6 +1056,9 @@
       <c r="E29" t="n">
         <v>18493.48</v>
       </c>
+      <c r="F29" t="n">
+        <v>18342.92</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -989,6 +1078,9 @@
       <c r="E30" t="n">
         <v>1774.15</v>
       </c>
+      <c r="F30" t="n">
+        <v>1782.04</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1008,6 +1100,9 @@
       <c r="E31" t="n">
         <v>12904.01</v>
       </c>
+      <c r="F31" t="n">
+        <v>12935.87</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1027,6 +1122,9 @@
       <c r="E32" t="n">
         <v>5724.26</v>
       </c>
+      <c r="F32" t="n">
+        <v>5687.61</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1045,6 +1143,9 @@
       </c>
       <c r="E33" t="n">
         <v>11126.37</v>
+      </c>
+      <c r="F33" t="n">
+        <v>9254.129999999999</v>
       </c>
     </row>
     <row r="34">
@@ -1063,6 +1164,9 @@
       <c r="E34" t="n">
         <v>80520.37</v>
       </c>
+      <c r="F34" t="n">
+        <v>80635.67999999999</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1082,6 +1186,9 @@
       <c r="E35" t="n">
         <v>97026.5</v>
       </c>
+      <c r="F35" t="n">
+        <v>97516.52</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1101,6 +1208,9 @@
       <c r="E36" t="n">
         <v>14005.69</v>
       </c>
+      <c r="F36" t="n">
+        <v>13920.84</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1120,6 +1230,9 @@
       <c r="E37" t="n">
         <v>35836.88</v>
       </c>
+      <c r="F37" t="n">
+        <v>35776.44</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1139,6 +1252,9 @@
       <c r="E38" t="n">
         <v>23961.16</v>
       </c>
+      <c r="F38" t="n">
+        <v>25869.09</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1158,6 +1274,9 @@
       <c r="E39" t="n">
         <v>627146.88</v>
       </c>
+      <c r="F39" t="n">
+        <v>627328.22</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1177,6 +1296,9 @@
       <c r="E40" t="n">
         <v>157754.16</v>
       </c>
+      <c r="F40" t="n">
+        <v>156824.05</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1194,6 +1316,7 @@
         <v>884941.74</v>
       </c>
       <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1213,6 +1336,9 @@
       <c r="E42" t="n">
         <v>1267389.53</v>
       </c>
+      <c r="F42" t="n">
+        <v>1265016.54</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1232,6 +1358,9 @@
       <c r="E43" t="n">
         <v>54008.9</v>
       </c>
+      <c r="F43" t="n">
+        <v>53973.67</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1251,6 +1380,9 @@
       <c r="E44" t="n">
         <v>240487.18</v>
       </c>
+      <c r="F44" t="n">
+        <v>236084.43</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1269,6 +1401,9 @@
       </c>
       <c r="E45" t="n">
         <v>9859974.52</v>
+      </c>
+      <c r="F45" t="n">
+        <v>9679461.77</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGNO4.xlsx
+++ b/backend/src/excel_handler/files/TGNO4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>188446.39</v>
       </c>
+      <c r="G2" t="n">
+        <v>188049.01</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>105686.62</v>
       </c>
+      <c r="G3" t="n">
+        <v>105879.99</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -525,6 +536,9 @@
       <c r="F4" t="n">
         <v>19569.24</v>
       </c>
+      <c r="G4" t="n">
+        <v>19541.27</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -547,6 +561,9 @@
       <c r="F5" t="n">
         <v>60127.86</v>
       </c>
+      <c r="G5" t="n">
+        <v>60130.12</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -569,6 +586,9 @@
       <c r="F6" t="n">
         <v>155038.93</v>
       </c>
+      <c r="G6" t="n">
+        <v>156003.03</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -591,6 +611,9 @@
       <c r="F7" t="n">
         <v>52637.31</v>
       </c>
+      <c r="G7" t="n">
+        <v>52559.33</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -613,6 +636,9 @@
       <c r="F8" t="n">
         <v>3468.24</v>
       </c>
+      <c r="G8" t="n">
+        <v>3484.78</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -635,6 +661,9 @@
       <c r="F9" t="n">
         <v>2254129.98</v>
       </c>
+      <c r="G9" t="n">
+        <v>2254436.59</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -657,6 +686,9 @@
       <c r="F10" t="n">
         <v>4060.98</v>
       </c>
+      <c r="G10" t="n">
+        <v>4061.31</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -679,6 +711,9 @@
       <c r="F11" t="n">
         <v>182528.74</v>
       </c>
+      <c r="G11" t="n">
+        <v>181887.77</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -701,6 +736,9 @@
       <c r="F12" t="n">
         <v>189738.7</v>
       </c>
+      <c r="G12" t="n">
+        <v>189783.18</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -722,6 +760,9 @@
       </c>
       <c r="F13" t="n">
         <v>237252.39</v>
+      </c>
+      <c r="G13" t="n">
+        <v>233297.58</v>
       </c>
     </row>
     <row r="14">
@@ -743,6 +784,9 @@
       <c r="F14" t="n">
         <v>130505.84</v>
       </c>
+      <c r="G14" t="n">
+        <v>129862.04</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -763,6 +807,9 @@
       <c r="F15" t="n">
         <v>82282.49000000001</v>
       </c>
+      <c r="G15" t="n">
+        <v>82060.59</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -783,6 +830,9 @@
       <c r="F16" t="n">
         <v>52176.82</v>
       </c>
+      <c r="G16" t="n">
+        <v>52207.82</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -803,6 +853,9 @@
       <c r="F17" t="n">
         <v>261200.32</v>
       </c>
+      <c r="G17" t="n">
+        <v>261066.59</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -823,6 +876,9 @@
       <c r="F18" t="n">
         <v>15748.17</v>
       </c>
+      <c r="G18" t="n">
+        <v>15401.92</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -843,6 +899,9 @@
       <c r="F19" t="n">
         <v>88823.83</v>
       </c>
+      <c r="G19" t="n">
+        <v>91182.07000000001</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -863,6 +922,9 @@
       <c r="F20" t="n">
         <v>83641.81</v>
       </c>
+      <c r="G20" t="n">
+        <v>83748.97</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -883,6 +945,9 @@
       <c r="F21" t="n">
         <v>624578.16</v>
       </c>
+      <c r="G21" t="n">
+        <v>623635.3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -905,6 +970,9 @@
       <c r="F22" t="n">
         <v>109170.21</v>
       </c>
+      <c r="G22" t="n">
+        <v>109371.55</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -927,6 +995,9 @@
       <c r="F23" t="n">
         <v>142038.74</v>
       </c>
+      <c r="G23" t="n">
+        <v>142086.12</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -949,6 +1020,9 @@
       <c r="F24" t="n">
         <v>1949476.81</v>
       </c>
+      <c r="G24" t="n">
+        <v>1901068.39</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -971,6 +1045,9 @@
       <c r="F25" t="n">
         <v>12308.22</v>
       </c>
+      <c r="G25" t="n">
+        <v>12276.17</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -993,6 +1070,9 @@
       <c r="F26" t="n">
         <v>190.72</v>
       </c>
+      <c r="G26" t="n">
+        <v>209.01</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1015,6 +1095,9 @@
       <c r="F27" t="n">
         <v>73093.5</v>
       </c>
+      <c r="G27" t="n">
+        <v>70925.27</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1037,6 +1120,9 @@
       <c r="F28" t="n">
         <v>196677.13</v>
       </c>
+      <c r="G28" t="n">
+        <v>196875.64</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1059,6 +1145,9 @@
       <c r="F29" t="n">
         <v>18342.92</v>
       </c>
+      <c r="G29" t="n">
+        <v>18257.18</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1081,6 +1170,9 @@
       <c r="F30" t="n">
         <v>1782.04</v>
       </c>
+      <c r="G30" t="n">
+        <v>1779.16</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1103,6 +1195,9 @@
       <c r="F31" t="n">
         <v>12935.87</v>
       </c>
+      <c r="G31" t="n">
+        <v>12844.11</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1125,6 +1220,9 @@
       <c r="F32" t="n">
         <v>5687.61</v>
       </c>
+      <c r="G32" t="n">
+        <v>5660.52</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1146,6 +1244,9 @@
       </c>
       <c r="F33" t="n">
         <v>9254.129999999999</v>
+      </c>
+      <c r="G33" t="n">
+        <v>9328.51</v>
       </c>
     </row>
     <row r="34">
@@ -1167,6 +1268,9 @@
       <c r="F34" t="n">
         <v>80635.67999999999</v>
       </c>
+      <c r="G34" t="n">
+        <v>80573.66</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1189,6 +1293,9 @@
       <c r="F35" t="n">
         <v>97516.52</v>
       </c>
+      <c r="G35" t="n">
+        <v>97194.83</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1211,6 +1318,9 @@
       <c r="F36" t="n">
         <v>13920.84</v>
       </c>
+      <c r="G36" t="n">
+        <v>13978.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1233,6 +1343,9 @@
       <c r="F37" t="n">
         <v>35776.44</v>
       </c>
+      <c r="G37" t="n">
+        <v>35872.25</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1255,6 +1368,9 @@
       <c r="F38" t="n">
         <v>25869.09</v>
       </c>
+      <c r="G38" t="n">
+        <v>26062.75</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1277,6 +1393,9 @@
       <c r="F39" t="n">
         <v>627328.22</v>
       </c>
+      <c r="G39" t="n">
+        <v>626928.58</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1299,6 +1418,9 @@
       <c r="F40" t="n">
         <v>156824.05</v>
       </c>
+      <c r="G40" t="n">
+        <v>157006.01</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1317,6 +1439,7 @@
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1339,6 +1462,9 @@
       <c r="F42" t="n">
         <v>1265016.54</v>
       </c>
+      <c r="G42" t="n">
+        <v>1265288.12</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1361,6 +1487,9 @@
       <c r="F43" t="n">
         <v>53973.67</v>
       </c>
+      <c r="G43" t="n">
+        <v>53933.62</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1383,6 +1512,9 @@
       <c r="F44" t="n">
         <v>236084.43</v>
       </c>
+      <c r="G44" t="n">
+        <v>234775.59</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1404,6 +1536,9 @@
       </c>
       <c r="F45" t="n">
         <v>9679461.77</v>
+      </c>
+      <c r="G45" t="n">
+        <v>9625799.210000001</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGNO4.xlsx
+++ b/backend/src/excel_handler/files/TGNO4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>188049.01</v>
       </c>
+      <c r="H2" t="n">
+        <v>198217.62</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>105879.99</v>
       </c>
+      <c r="H3" t="n">
+        <v>105617.37</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>19541.27</v>
       </c>
+      <c r="H4" t="n">
+        <v>19544.28</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>60130.12</v>
       </c>
+      <c r="H5" t="n">
+        <v>59894.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -589,6 +606,9 @@
       <c r="G6" t="n">
         <v>156003.03</v>
       </c>
+      <c r="H6" t="n">
+        <v>155329.96</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -614,6 +634,9 @@
       <c r="G7" t="n">
         <v>52559.33</v>
       </c>
+      <c r="H7" t="n">
+        <v>52733.99</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -639,6 +662,9 @@
       <c r="G8" t="n">
         <v>3484.78</v>
       </c>
+      <c r="H8" t="n">
+        <v>3529.23</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -664,6 +690,9 @@
       <c r="G9" t="n">
         <v>2254436.59</v>
       </c>
+      <c r="H9" t="n">
+        <v>2254506.91</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -689,6 +718,9 @@
       <c r="G10" t="n">
         <v>4061.31</v>
       </c>
+      <c r="H10" t="n">
+        <v>4055.26</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -714,6 +746,9 @@
       <c r="G11" t="n">
         <v>181887.77</v>
       </c>
+      <c r="H11" t="n">
+        <v>182253.28</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -739,6 +774,9 @@
       <c r="G12" t="n">
         <v>189783.18</v>
       </c>
+      <c r="H12" t="n">
+        <v>189738.28</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -763,6 +801,9 @@
       </c>
       <c r="G13" t="n">
         <v>233297.58</v>
+      </c>
+      <c r="H13" t="n">
+        <v>233260.45</v>
       </c>
     </row>
     <row r="14">
@@ -787,6 +828,9 @@
       <c r="G14" t="n">
         <v>129862.04</v>
       </c>
+      <c r="H14" t="n">
+        <v>129173.01</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -810,6 +854,9 @@
       <c r="G15" t="n">
         <v>82060.59</v>
       </c>
+      <c r="H15" t="n">
+        <v>82285.17</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -833,6 +880,9 @@
       <c r="G16" t="n">
         <v>52207.82</v>
       </c>
+      <c r="H16" t="n">
+        <v>52465.04</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -856,6 +906,9 @@
       <c r="G17" t="n">
         <v>261066.59</v>
       </c>
+      <c r="H17" t="n">
+        <v>261092.15</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -879,6 +932,9 @@
       <c r="G18" t="n">
         <v>15401.92</v>
       </c>
+      <c r="H18" t="n">
+        <v>15062.04</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -902,6 +958,9 @@
       <c r="G19" t="n">
         <v>91182.07000000001</v>
       </c>
+      <c r="H19" t="n">
+        <v>91428.73</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -925,6 +984,9 @@
       <c r="G20" t="n">
         <v>83748.97</v>
       </c>
+      <c r="H20" t="n">
+        <v>83817.92</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -948,6 +1010,9 @@
       <c r="G21" t="n">
         <v>623635.3</v>
       </c>
+      <c r="H21" t="n">
+        <v>624270.58</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -973,6 +1038,9 @@
       <c r="G22" t="n">
         <v>109371.55</v>
       </c>
+      <c r="H22" t="n">
+        <v>108947.23</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -998,6 +1066,9 @@
       <c r="G23" t="n">
         <v>142086.12</v>
       </c>
+      <c r="H23" t="n">
+        <v>202071.64</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1023,6 +1094,9 @@
       <c r="G24" t="n">
         <v>1901068.39</v>
       </c>
+      <c r="H24" t="n">
+        <v>1899628.65</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1048,6 +1122,9 @@
       <c r="G25" t="n">
         <v>12276.17</v>
       </c>
+      <c r="H25" t="n">
+        <v>12304.56</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1073,6 +1150,9 @@
       <c r="G26" t="n">
         <v>209.01</v>
       </c>
+      <c r="H26" t="n">
+        <v>193.43</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1098,6 +1178,9 @@
       <c r="G27" t="n">
         <v>70925.27</v>
       </c>
+      <c r="H27" t="n">
+        <v>74109.75999999999</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1123,6 +1206,9 @@
       <c r="G28" t="n">
         <v>196875.64</v>
       </c>
+      <c r="H28" t="n">
+        <v>196689.55</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1148,6 +1234,9 @@
       <c r="G29" t="n">
         <v>18257.18</v>
       </c>
+      <c r="H29" t="n">
+        <v>21843.78</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1173,6 +1262,9 @@
       <c r="G30" t="n">
         <v>1779.16</v>
       </c>
+      <c r="H30" t="n">
+        <v>1771.85</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1198,6 +1290,9 @@
       <c r="G31" t="n">
         <v>12844.11</v>
       </c>
+      <c r="H31" t="n">
+        <v>12872.22</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1223,6 +1318,9 @@
       <c r="G32" t="n">
         <v>5660.52</v>
       </c>
+      <c r="H32" t="n">
+        <v>5694.02</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1247,6 +1345,9 @@
       </c>
       <c r="G33" t="n">
         <v>9328.51</v>
+      </c>
+      <c r="H33" t="n">
+        <v>9285.51</v>
       </c>
     </row>
     <row r="34">
@@ -1271,6 +1372,9 @@
       <c r="G34" t="n">
         <v>80573.66</v>
       </c>
+      <c r="H34" t="n">
+        <v>80821.64</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1296,6 +1400,9 @@
       <c r="G35" t="n">
         <v>97194.83</v>
       </c>
+      <c r="H35" t="n">
+        <v>97128.85000000001</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1321,6 +1428,9 @@
       <c r="G36" t="n">
         <v>13978.5</v>
       </c>
+      <c r="H36" t="n">
+        <v>17083.92</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1346,6 +1456,9 @@
       <c r="G37" t="n">
         <v>35872.25</v>
       </c>
+      <c r="H37" t="n">
+        <v>35862.22</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1371,6 +1484,9 @@
       <c r="G38" t="n">
         <v>26062.75</v>
       </c>
+      <c r="H38" t="n">
+        <v>26082.98</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1396,6 +1512,9 @@
       <c r="G39" t="n">
         <v>626928.58</v>
       </c>
+      <c r="H39" t="n">
+        <v>607379.1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1420,6 +1539,9 @@
       </c>
       <c r="G40" t="n">
         <v>157006.01</v>
+      </c>
+      <c r="H40" t="n">
+        <v>156635.74</v>
       </c>
     </row>
     <row r="41">
@@ -1440,6 +1562,7 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1465,6 +1588,9 @@
       <c r="G42" t="n">
         <v>1265288.12</v>
       </c>
+      <c r="H42" t="n">
+        <v>1265217.48</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1490,6 +1616,9 @@
       <c r="G43" t="n">
         <v>53933.62</v>
       </c>
+      <c r="H43" t="n">
+        <v>54001.8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1515,6 +1644,9 @@
       <c r="G44" t="n">
         <v>234775.59</v>
       </c>
+      <c r="H44" t="n">
+        <v>236192.73</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1539,6 +1671,9 @@
       </c>
       <c r="G45" t="n">
         <v>9625799.210000001</v>
+      </c>
+      <c r="H45" t="n">
+        <v>9683901.859999999</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGNO4.xlsx
+++ b/backend/src/excel_handler/files/TGNO4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>198217.62</v>
       </c>
+      <c r="I2" t="n">
+        <v>185369.66</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -525,6 +533,9 @@
       <c r="H3" t="n">
         <v>105617.37</v>
       </c>
+      <c r="I3" t="n">
+        <v>105609.23</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -553,6 +564,9 @@
       <c r="H4" t="n">
         <v>19544.28</v>
       </c>
+      <c r="I4" t="n">
+        <v>19529.18</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -581,6 +595,9 @@
       <c r="H5" t="n">
         <v>59894.66</v>
       </c>
+      <c r="I5" t="n">
+        <v>59911.21</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -609,6 +626,9 @@
       <c r="H6" t="n">
         <v>155329.96</v>
       </c>
+      <c r="I6" t="n">
+        <v>113807.71</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -637,6 +657,9 @@
       <c r="H7" t="n">
         <v>52733.99</v>
       </c>
+      <c r="I7" t="n">
+        <v>52580.29</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -665,6 +688,9 @@
       <c r="H8" t="n">
         <v>3529.23</v>
       </c>
+      <c r="I8" t="n">
+        <v>3523.24</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -693,6 +719,9 @@
       <c r="H9" t="n">
         <v>2254506.91</v>
       </c>
+      <c r="I9" t="n">
+        <v>2252618.79</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -721,6 +750,9 @@
       <c r="H10" t="n">
         <v>4055.26</v>
       </c>
+      <c r="I10" t="n">
+        <v>4057.79</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -749,6 +781,9 @@
       <c r="H11" t="n">
         <v>182253.28</v>
       </c>
+      <c r="I11" t="n">
+        <v>181810.07</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -777,6 +812,9 @@
       <c r="H12" t="n">
         <v>189738.28</v>
       </c>
+      <c r="I12" t="n">
+        <v>189799.81</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -804,6 +842,9 @@
       </c>
       <c r="H13" t="n">
         <v>233260.45</v>
+      </c>
+      <c r="I13" t="n">
+        <v>233302</v>
       </c>
     </row>
     <row r="14">
@@ -831,6 +872,9 @@
       <c r="H14" t="n">
         <v>129173.01</v>
       </c>
+      <c r="I14" t="n">
+        <v>129892.63</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -857,6 +901,9 @@
       <c r="H15" t="n">
         <v>82285.17</v>
       </c>
+      <c r="I15" t="n">
+        <v>82304.07000000001</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -883,6 +930,9 @@
       <c r="H16" t="n">
         <v>52465.04</v>
       </c>
+      <c r="I16" t="n">
+        <v>52559.54</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -909,6 +959,9 @@
       <c r="H17" t="n">
         <v>261092.15</v>
       </c>
+      <c r="I17" t="n">
+        <v>260870.75</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -935,6 +988,9 @@
       <c r="H18" t="n">
         <v>15062.04</v>
       </c>
+      <c r="I18" t="n">
+        <v>15533.79</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -961,6 +1017,9 @@
       <c r="H19" t="n">
         <v>91428.73</v>
       </c>
+      <c r="I19" t="n">
+        <v>91227.7</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -987,6 +1046,9 @@
       <c r="H20" t="n">
         <v>83817.92</v>
       </c>
+      <c r="I20" t="n">
+        <v>83870.86</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1013,6 +1075,9 @@
       <c r="H21" t="n">
         <v>624270.58</v>
       </c>
+      <c r="I21" t="n">
+        <v>616904.14</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1041,6 +1106,9 @@
       <c r="H22" t="n">
         <v>108947.23</v>
       </c>
+      <c r="I22" t="n">
+        <v>109531.03</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1069,6 +1137,9 @@
       <c r="H23" t="n">
         <v>202071.64</v>
       </c>
+      <c r="I23" t="n">
+        <v>202077.61</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1097,6 +1168,9 @@
       <c r="H24" t="n">
         <v>1899628.65</v>
       </c>
+      <c r="I24" t="n">
+        <v>1898800.17</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1125,6 +1199,9 @@
       <c r="H25" t="n">
         <v>12304.56</v>
       </c>
+      <c r="I25" t="n">
+        <v>12302.13</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1153,6 +1230,9 @@
       <c r="H26" t="n">
         <v>193.43</v>
       </c>
+      <c r="I26" t="n">
+        <v>198.45</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1181,6 +1261,9 @@
       <c r="H27" t="n">
         <v>74109.75999999999</v>
       </c>
+      <c r="I27" t="n">
+        <v>65393.38</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1209,6 +1292,9 @@
       <c r="H28" t="n">
         <v>196689.55</v>
       </c>
+      <c r="I28" t="n">
+        <v>196527.92</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1237,6 +1323,9 @@
       <c r="H29" t="n">
         <v>21843.78</v>
       </c>
+      <c r="I29" t="n">
+        <v>21841.39</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1265,6 +1354,9 @@
       <c r="H30" t="n">
         <v>1771.85</v>
       </c>
+      <c r="I30" t="n">
+        <v>1770.44</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1293,6 +1385,9 @@
       <c r="H31" t="n">
         <v>12872.22</v>
       </c>
+      <c r="I31" t="n">
+        <v>12946.63</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1321,6 +1416,9 @@
       <c r="H32" t="n">
         <v>5694.02</v>
       </c>
+      <c r="I32" t="n">
+        <v>5652.74</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1348,6 +1446,9 @@
       </c>
       <c r="H33" t="n">
         <v>9285.51</v>
+      </c>
+      <c r="I33" t="n">
+        <v>9268.23</v>
       </c>
     </row>
     <row r="34">
@@ -1375,6 +1476,9 @@
       <c r="H34" t="n">
         <v>80821.64</v>
       </c>
+      <c r="I34" t="n">
+        <v>80699.92</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1403,6 +1507,9 @@
       <c r="H35" t="n">
         <v>97128.85000000001</v>
       </c>
+      <c r="I35" t="n">
+        <v>97429.53</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1431,6 +1538,9 @@
       <c r="H36" t="n">
         <v>17083.92</v>
       </c>
+      <c r="I36" t="n">
+        <v>17023.38</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1459,6 +1569,9 @@
       <c r="H37" t="n">
         <v>35862.22</v>
       </c>
+      <c r="I37" t="n">
+        <v>35845.83</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1487,6 +1600,9 @@
       <c r="H38" t="n">
         <v>26082.98</v>
       </c>
+      <c r="I38" t="n">
+        <v>26081.09</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1515,6 +1631,9 @@
       <c r="H39" t="n">
         <v>607379.1</v>
       </c>
+      <c r="I39" t="n">
+        <v>607932.61</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1542,6 +1661,9 @@
       </c>
       <c r="H40" t="n">
         <v>156635.74</v>
+      </c>
+      <c r="I40" t="n">
+        <v>155646.6</v>
       </c>
     </row>
     <row r="41">
@@ -1563,6 +1685,7 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1591,6 +1714,9 @@
       <c r="H42" t="n">
         <v>1265217.48</v>
       </c>
+      <c r="I42" t="n">
+        <v>1266216.94</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1619,6 +1745,9 @@
       <c r="H43" t="n">
         <v>54001.8</v>
       </c>
+      <c r="I43" t="n">
+        <v>53904.25</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1647,6 +1776,9 @@
       <c r="H44" t="n">
         <v>236192.73</v>
       </c>
+      <c r="I44" t="n">
+        <v>234443.24</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1674,6 +1806,9 @@
       </c>
       <c r="H45" t="n">
         <v>9683901.859999999</v>
+      </c>
+      <c r="I45" t="n">
+        <v>9612172.73</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGNO4.xlsx
+++ b/backend/src/excel_handler/files/TGNO4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>185369.66</v>
       </c>
+      <c r="J2" t="n">
+        <v>185428.46</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>105609.23</v>
       </c>
+      <c r="J3" t="n">
+        <v>105916.21</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -567,6 +578,9 @@
       <c r="I4" t="n">
         <v>19529.18</v>
       </c>
+      <c r="J4" t="n">
+        <v>19542.07</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -598,6 +612,9 @@
       <c r="I5" t="n">
         <v>59911.21</v>
       </c>
+      <c r="J5" t="n">
+        <v>60180.27</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -629,6 +646,9 @@
       <c r="I6" t="n">
         <v>113807.71</v>
       </c>
+      <c r="J6" t="n">
+        <v>113671.28</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -660,6 +680,9 @@
       <c r="I7" t="n">
         <v>52580.29</v>
       </c>
+      <c r="J7" t="n">
+        <v>52734.28</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -691,6 +714,9 @@
       <c r="I8" t="n">
         <v>3523.24</v>
       </c>
+      <c r="J8" t="n">
+        <v>3533.32</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -722,6 +748,9 @@
       <c r="I9" t="n">
         <v>2252618.79</v>
       </c>
+      <c r="J9" t="n">
+        <v>2252745.89</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -753,6 +782,9 @@
       <c r="I10" t="n">
         <v>4057.79</v>
       </c>
+      <c r="J10" t="n">
+        <v>4066.81</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -784,6 +816,9 @@
       <c r="I11" t="n">
         <v>181810.07</v>
       </c>
+      <c r="J11" t="n">
+        <v>168885.57</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -815,6 +850,9 @@
       <c r="I12" t="n">
         <v>189799.81</v>
       </c>
+      <c r="J12" t="n">
+        <v>189674</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -845,6 +883,9 @@
       </c>
       <c r="I13" t="n">
         <v>233302</v>
+      </c>
+      <c r="J13" t="n">
+        <v>233357.82</v>
       </c>
     </row>
     <row r="14">
@@ -875,6 +916,9 @@
       <c r="I14" t="n">
         <v>129892.63</v>
       </c>
+      <c r="J14" t="n">
+        <v>129086.74</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -904,6 +948,9 @@
       <c r="I15" t="n">
         <v>82304.07000000001</v>
       </c>
+      <c r="J15" t="n">
+        <v>82513.62</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -933,6 +980,9 @@
       <c r="I16" t="n">
         <v>52559.54</v>
       </c>
+      <c r="J16" t="n">
+        <v>52601.03</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -962,6 +1012,9 @@
       <c r="I17" t="n">
         <v>260870.75</v>
       </c>
+      <c r="J17" t="n">
+        <v>260824.16</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -991,6 +1044,9 @@
       <c r="I18" t="n">
         <v>15533.79</v>
       </c>
+      <c r="J18" t="n">
+        <v>15130.15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1020,6 +1076,9 @@
       <c r="I19" t="n">
         <v>91227.7</v>
       </c>
+      <c r="J19" t="n">
+        <v>90922.13</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1049,6 +1108,9 @@
       <c r="I20" t="n">
         <v>83870.86</v>
       </c>
+      <c r="J20" t="n">
+        <v>84140.42</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1078,6 +1140,9 @@
       <c r="I21" t="n">
         <v>616904.14</v>
       </c>
+      <c r="J21" t="n">
+        <v>601507.99</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1109,6 +1174,9 @@
       <c r="I22" t="n">
         <v>109531.03</v>
       </c>
+      <c r="J22" t="n">
+        <v>108937.67</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1140,6 +1208,9 @@
       <c r="I23" t="n">
         <v>202077.61</v>
       </c>
+      <c r="J23" t="n">
+        <v>201954.47</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1171,6 +1242,9 @@
       <c r="I24" t="n">
         <v>1898800.17</v>
       </c>
+      <c r="J24" t="n">
+        <v>1700136.05</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1202,6 +1276,9 @@
       <c r="I25" t="n">
         <v>12302.13</v>
       </c>
+      <c r="J25" t="n">
+        <v>12337.05</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1233,6 +1310,9 @@
       <c r="I26" t="n">
         <v>198.45</v>
       </c>
+      <c r="J26" t="n">
+        <v>196.15</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1264,6 +1344,9 @@
       <c r="I27" t="n">
         <v>65393.38</v>
       </c>
+      <c r="J27" t="n">
+        <v>65527.59</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1295,6 +1378,9 @@
       <c r="I28" t="n">
         <v>196527.92</v>
       </c>
+      <c r="J28" t="n">
+        <v>192092.94</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1326,6 +1412,9 @@
       <c r="I29" t="n">
         <v>21841.39</v>
       </c>
+      <c r="J29" t="n">
+        <v>21849.16</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1357,6 +1446,9 @@
       <c r="I30" t="n">
         <v>1770.44</v>
       </c>
+      <c r="J30" t="n">
+        <v>1772.34</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1388,6 +1480,9 @@
       <c r="I31" t="n">
         <v>12946.63</v>
       </c>
+      <c r="J31" t="n">
+        <v>10648.04</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1419,6 +1514,9 @@
       <c r="I32" t="n">
         <v>5652.74</v>
       </c>
+      <c r="J32" t="n">
+        <v>5690.18</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1449,6 +1547,9 @@
       </c>
       <c r="I33" t="n">
         <v>9268.23</v>
+      </c>
+      <c r="J33" t="n">
+        <v>9286.690000000001</v>
       </c>
     </row>
     <row r="34">
@@ -1479,6 +1580,9 @@
       <c r="I34" t="n">
         <v>80699.92</v>
       </c>
+      <c r="J34" t="n">
+        <v>80722.99000000001</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1510,6 +1614,9 @@
       <c r="I35" t="n">
         <v>97429.53</v>
       </c>
+      <c r="J35" t="n">
+        <v>97000.10000000001</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1541,6 +1648,9 @@
       <c r="I36" t="n">
         <v>17023.38</v>
       </c>
+      <c r="J36" t="n">
+        <v>16997.81</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1572,6 +1682,9 @@
       <c r="I37" t="n">
         <v>35845.83</v>
       </c>
+      <c r="J37" t="n">
+        <v>35871.29</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1603,6 +1716,9 @@
       <c r="I38" t="n">
         <v>26081.09</v>
       </c>
+      <c r="J38" t="n">
+        <v>26115.68</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1634,6 +1750,9 @@
       <c r="I39" t="n">
         <v>607932.61</v>
       </c>
+      <c r="J39" t="n">
+        <v>607555.87</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1664,6 +1783,9 @@
       </c>
       <c r="I40" t="n">
         <v>155646.6</v>
+      </c>
+      <c r="J40" t="n">
+        <v>156812.67</v>
       </c>
     </row>
     <row r="41">
@@ -1686,6 +1808,7 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1717,6 +1840,9 @@
       <c r="I42" t="n">
         <v>1266216.94</v>
       </c>
+      <c r="J42" t="n">
+        <v>1265931.6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1748,6 +1874,9 @@
       <c r="I43" t="n">
         <v>53904.25</v>
       </c>
+      <c r="J43" t="n">
+        <v>54002.58</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1779,6 +1908,9 @@
       <c r="I44" t="n">
         <v>234443.24</v>
       </c>
+      <c r="J44" t="n">
+        <v>228729.3</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1809,6 +1941,9 @@
       </c>
       <c r="I45" t="n">
         <v>9612172.73</v>
+      </c>
+      <c r="J45" t="n">
+        <v>9377901.140000001</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGNO4.xlsx
+++ b/backend/src/excel_handler/files/TGNO4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>185428.46</v>
       </c>
+      <c r="K2" t="n">
+        <v>185097.73</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>105916.21</v>
       </c>
+      <c r="K3" t="n">
+        <v>105434.82</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,6 +592,9 @@
       <c r="J4" t="n">
         <v>19542.07</v>
       </c>
+      <c r="K4" t="n">
+        <v>19598.04</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -615,6 +629,9 @@
       <c r="J5" t="n">
         <v>60180.27</v>
       </c>
+      <c r="K5" t="n">
+        <v>59824.52</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -649,6 +666,9 @@
       <c r="J6" t="n">
         <v>113671.28</v>
       </c>
+      <c r="K6" t="n">
+        <v>113510.09</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -683,6 +703,9 @@
       <c r="J7" t="n">
         <v>52734.28</v>
       </c>
+      <c r="K7" t="n">
+        <v>52641.61</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -717,6 +740,9 @@
       <c r="J8" t="n">
         <v>3533.32</v>
       </c>
+      <c r="K8" t="n">
+        <v>3510.39</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -751,6 +777,9 @@
       <c r="J9" t="n">
         <v>2252745.89</v>
       </c>
+      <c r="K9" t="n">
+        <v>2253100.36</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -785,6 +814,9 @@
       <c r="J10" t="n">
         <v>4066.81</v>
       </c>
+      <c r="K10" t="n">
+        <v>489.48</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -819,6 +851,9 @@
       <c r="J11" t="n">
         <v>168885.57</v>
       </c>
+      <c r="K11" t="n">
+        <v>169061.14</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -853,6 +888,9 @@
       <c r="J12" t="n">
         <v>189674</v>
       </c>
+      <c r="K12" t="n">
+        <v>189785.38</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -886,6 +924,9 @@
       </c>
       <c r="J13" t="n">
         <v>233357.82</v>
+      </c>
+      <c r="K13" t="n">
+        <v>233559.82</v>
       </c>
     </row>
     <row r="14">
@@ -919,6 +960,9 @@
       <c r="J14" t="n">
         <v>129086.74</v>
       </c>
+      <c r="K14" t="n">
+        <v>130157.27</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -951,6 +995,9 @@
       <c r="J15" t="n">
         <v>82513.62</v>
       </c>
+      <c r="K15" t="n">
+        <v>82537.37</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -983,6 +1030,9 @@
       <c r="J16" t="n">
         <v>52601.03</v>
       </c>
+      <c r="K16" t="n">
+        <v>52479.86</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1015,6 +1065,9 @@
       <c r="J17" t="n">
         <v>260824.16</v>
       </c>
+      <c r="K17" t="n">
+        <v>260737.62</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1047,6 +1100,9 @@
       <c r="J18" t="n">
         <v>15130.15</v>
       </c>
+      <c r="K18" t="n">
+        <v>16109.63</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1079,6 +1135,9 @@
       <c r="J19" t="n">
         <v>90922.13</v>
       </c>
+      <c r="K19" t="n">
+        <v>83531.08</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1111,6 +1170,9 @@
       <c r="J20" t="n">
         <v>84140.42</v>
       </c>
+      <c r="K20" t="n">
+        <v>77204.50999999999</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1143,6 +1205,9 @@
       <c r="J21" t="n">
         <v>601507.99</v>
       </c>
+      <c r="K21" t="n">
+        <v>529055.86</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1177,6 +1242,9 @@
       <c r="J22" t="n">
         <v>108937.67</v>
       </c>
+      <c r="K22" t="n">
+        <v>109293.4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1211,6 +1279,9 @@
       <c r="J23" t="n">
         <v>201954.47</v>
       </c>
+      <c r="K23" t="n">
+        <v>202046.23</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1245,6 +1316,9 @@
       <c r="J24" t="n">
         <v>1700136.05</v>
       </c>
+      <c r="K24" t="n">
+        <v>1698360.68</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1279,6 +1353,9 @@
       <c r="J25" t="n">
         <v>12337.05</v>
       </c>
+      <c r="K25" t="n">
+        <v>12351.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1313,6 +1390,9 @@
       <c r="J26" t="n">
         <v>196.15</v>
       </c>
+      <c r="K26" t="n">
+        <v>185.23</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1347,6 +1427,9 @@
       <c r="J27" t="n">
         <v>65527.59</v>
       </c>
+      <c r="K27" t="n">
+        <v>62183.13</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1381,6 +1464,9 @@
       <c r="J28" t="n">
         <v>192092.94</v>
       </c>
+      <c r="K28" t="n">
+        <v>191998.89</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1415,6 +1501,9 @@
       <c r="J29" t="n">
         <v>21849.16</v>
       </c>
+      <c r="K29" t="n">
+        <v>21721.54</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1449,6 +1538,9 @@
       <c r="J30" t="n">
         <v>1772.34</v>
       </c>
+      <c r="K30" t="n">
+        <v>1780.13</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1483,6 +1575,9 @@
       <c r="J31" t="n">
         <v>10648.04</v>
       </c>
+      <c r="K31" t="n">
+        <v>10740.69</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1517,6 +1612,9 @@
       <c r="J32" t="n">
         <v>5690.18</v>
       </c>
+      <c r="K32" t="n">
+        <v>5668.11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1550,6 +1648,9 @@
       </c>
       <c r="J33" t="n">
         <v>9286.690000000001</v>
+      </c>
+      <c r="K33" t="n">
+        <v>9248.67</v>
       </c>
     </row>
     <row r="34">
@@ -1583,6 +1684,9 @@
       <c r="J34" t="n">
         <v>80722.99000000001</v>
       </c>
+      <c r="K34" t="n">
+        <v>80806</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1617,6 +1721,9 @@
       <c r="J35" t="n">
         <v>97000.10000000001</v>
       </c>
+      <c r="K35" t="n">
+        <v>97207.05</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1651,6 +1758,9 @@
       <c r="J36" t="n">
         <v>16997.81</v>
       </c>
+      <c r="K36" t="n">
+        <v>16079.53</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1685,6 +1795,9 @@
       <c r="J37" t="n">
         <v>35871.29</v>
       </c>
+      <c r="K37" t="n">
+        <v>35575.1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1719,6 +1832,9 @@
       <c r="J38" t="n">
         <v>26115.68</v>
       </c>
+      <c r="K38" t="n">
+        <v>26079.83</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1753,6 +1869,9 @@
       <c r="J39" t="n">
         <v>607555.87</v>
       </c>
+      <c r="K39" t="n">
+        <v>607912.47</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1786,6 +1905,9 @@
       </c>
       <c r="J40" t="n">
         <v>156812.67</v>
+      </c>
+      <c r="K40" t="n">
+        <v>157193.28</v>
       </c>
     </row>
     <row r="41">
@@ -1809,6 +1931,7 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1843,6 +1966,9 @@
       <c r="J42" t="n">
         <v>1265931.6</v>
       </c>
+      <c r="K42" t="n">
+        <v>1266610.38</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1877,6 +2003,9 @@
       <c r="J43" t="n">
         <v>54002.58</v>
       </c>
+      <c r="K43" t="n">
+        <v>53915.63</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1911,6 +2040,9 @@
       <c r="J44" t="n">
         <v>228729.3</v>
       </c>
+      <c r="K44" t="n">
+        <v>226448.39</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1944,6 +2076,9 @@
       </c>
       <c r="J45" t="n">
         <v>9377901.140000001</v>
+      </c>
+      <c r="K45" t="n">
+        <v>9284383.949999999</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGNO4.xlsx
+++ b/backend/src/excel_handler/files/TGNO4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>185097.73</v>
       </c>
+      <c r="L2" t="n">
+        <v>137210.96</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +566,9 @@
       <c r="K3" t="n">
         <v>105434.82</v>
       </c>
+      <c r="L3" t="n">
+        <v>105471.58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -595,6 +606,9 @@
       <c r="K4" t="n">
         <v>19598.04</v>
       </c>
+      <c r="L4" t="n">
+        <v>19549.07</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -632,6 +646,9 @@
       <c r="K5" t="n">
         <v>59824.52</v>
       </c>
+      <c r="L5" t="n">
+        <v>59921.46</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -669,6 +686,9 @@
       <c r="K6" t="n">
         <v>113510.09</v>
       </c>
+      <c r="L6" t="n">
+        <v>113543.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -706,6 +726,9 @@
       <c r="K7" t="n">
         <v>52641.61</v>
       </c>
+      <c r="L7" t="n">
+        <v>52821.1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -743,6 +766,9 @@
       <c r="K8" t="n">
         <v>3510.39</v>
       </c>
+      <c r="L8" t="n">
+        <v>3537.14</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -780,6 +806,9 @@
       <c r="K9" t="n">
         <v>2253100.36</v>
       </c>
+      <c r="L9" t="n">
+        <v>2253758.82</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -817,6 +846,9 @@
       <c r="K10" t="n">
         <v>489.48</v>
       </c>
+      <c r="L10" t="n">
+        <v>491.57</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -854,6 +886,9 @@
       <c r="K11" t="n">
         <v>169061.14</v>
       </c>
+      <c r="L11" t="n">
+        <v>168899.37</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -891,6 +926,9 @@
       <c r="K12" t="n">
         <v>189785.38</v>
       </c>
+      <c r="L12" t="n">
+        <v>189651.84</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -927,6 +965,9 @@
       </c>
       <c r="K13" t="n">
         <v>233559.82</v>
+      </c>
+      <c r="L13" t="n">
+        <v>233525.57</v>
       </c>
     </row>
     <row r="14">
@@ -963,6 +1004,9 @@
       <c r="K14" t="n">
         <v>130157.27</v>
       </c>
+      <c r="L14" t="n">
+        <v>129596.26</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -998,6 +1042,9 @@
       <c r="K15" t="n">
         <v>82537.37</v>
       </c>
+      <c r="L15" t="n">
+        <v>82263.17999999999</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1033,6 +1080,9 @@
       <c r="K16" t="n">
         <v>52479.86</v>
       </c>
+      <c r="L16" t="n">
+        <v>52335.43</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1068,6 +1118,9 @@
       <c r="K17" t="n">
         <v>260737.62</v>
       </c>
+      <c r="L17" t="n">
+        <v>260864.94</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1103,6 +1156,9 @@
       <c r="K18" t="n">
         <v>16109.63</v>
       </c>
+      <c r="L18" t="n">
+        <v>15013.05</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1138,6 +1194,9 @@
       <c r="K19" t="n">
         <v>83531.08</v>
       </c>
+      <c r="L19" t="n">
+        <v>80782.25999999999</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1173,6 +1232,9 @@
       <c r="K20" t="n">
         <v>77204.50999999999</v>
       </c>
+      <c r="L20" t="n">
+        <v>77081.98</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1208,6 +1270,9 @@
       <c r="K21" t="n">
         <v>529055.86</v>
       </c>
+      <c r="L21" t="n">
+        <v>494312.86</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1245,6 +1310,9 @@
       <c r="K22" t="n">
         <v>109293.4</v>
       </c>
+      <c r="L22" t="n">
+        <v>109446.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1282,6 +1350,9 @@
       <c r="K23" t="n">
         <v>202046.23</v>
       </c>
+      <c r="L23" t="n">
+        <v>202163.93</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1319,6 +1390,9 @@
       <c r="K24" t="n">
         <v>1698360.68</v>
       </c>
+      <c r="L24" t="n">
+        <v>1698891.21</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1356,6 +1430,9 @@
       <c r="K25" t="n">
         <v>12351.4</v>
       </c>
+      <c r="L25" t="n">
+        <v>12356.92</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1393,6 +1470,9 @@
       <c r="K26" t="n">
         <v>185.23</v>
       </c>
+      <c r="L26" t="n">
+        <v>216.06</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1430,6 +1510,9 @@
       <c r="K27" t="n">
         <v>62183.13</v>
       </c>
+      <c r="L27" t="n">
+        <v>52189.51</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1467,6 +1550,9 @@
       <c r="K28" t="n">
         <v>191998.89</v>
       </c>
+      <c r="L28" t="n">
+        <v>176264.56</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1504,6 +1590,9 @@
       <c r="K29" t="n">
         <v>21721.54</v>
       </c>
+      <c r="L29" t="n">
+        <v>21537.56</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1541,6 +1630,9 @@
       <c r="K30" t="n">
         <v>1780.13</v>
       </c>
+      <c r="L30" t="n">
+        <v>1768.09</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1578,6 +1670,9 @@
       <c r="K31" t="n">
         <v>10740.69</v>
       </c>
+      <c r="L31" t="n">
+        <v>10837.76</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1615,6 +1710,9 @@
       <c r="K32" t="n">
         <v>5668.11</v>
       </c>
+      <c r="L32" t="n">
+        <v>5688.93</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1651,6 +1749,9 @@
       </c>
       <c r="K33" t="n">
         <v>9248.67</v>
+      </c>
+      <c r="L33" t="n">
+        <v>9236.809999999999</v>
       </c>
     </row>
     <row r="34">
@@ -1687,6 +1788,9 @@
       <c r="K34" t="n">
         <v>80806</v>
       </c>
+      <c r="L34" t="n">
+        <v>80755.10000000001</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1724,6 +1828,9 @@
       <c r="K35" t="n">
         <v>97207.05</v>
       </c>
+      <c r="L35" t="n">
+        <v>97417.99000000001</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1761,6 +1868,9 @@
       <c r="K36" t="n">
         <v>16079.53</v>
       </c>
+      <c r="L36" t="n">
+        <v>18902.23</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1798,6 +1908,9 @@
       <c r="K37" t="n">
         <v>35575.1</v>
       </c>
+      <c r="L37" t="n">
+        <v>35909.38</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1835,6 +1948,9 @@
       <c r="K38" t="n">
         <v>26079.83</v>
       </c>
+      <c r="L38" t="n">
+        <v>26239.08</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1872,6 +1988,9 @@
       <c r="K39" t="n">
         <v>607912.47</v>
       </c>
+      <c r="L39" t="n">
+        <v>571348.4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1908,6 +2027,9 @@
       </c>
       <c r="K40" t="n">
         <v>157193.28</v>
+      </c>
+      <c r="L40" t="n">
+        <v>156123.55</v>
       </c>
     </row>
     <row r="41">
@@ -1932,6 +2054,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1969,6 +2092,9 @@
       <c r="K42" t="n">
         <v>1266610.38</v>
       </c>
+      <c r="L42" t="n">
+        <v>1264914.29</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2006,6 +2132,9 @@
       <c r="K43" t="n">
         <v>53915.63</v>
       </c>
+      <c r="L43" t="n">
+        <v>53925.52</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2043,6 +2172,9 @@
       <c r="K44" t="n">
         <v>226448.39</v>
       </c>
+      <c r="L44" t="n">
+        <v>222847.96</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2079,6 +2211,9 @@
       </c>
       <c r="K45" t="n">
         <v>9284383.949999999</v>
+      </c>
+      <c r="L45" t="n">
+        <v>9136766.220000001</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGNO4.xlsx
+++ b/backend/src/excel_handler/files/TGNO4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>137210.96</v>
       </c>
+      <c r="M2" t="n">
+        <v>136960.39</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,6 +577,9 @@
       <c r="L3" t="n">
         <v>105471.58</v>
       </c>
+      <c r="M3" t="n">
+        <v>106029.47</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -609,6 +620,9 @@
       <c r="L4" t="n">
         <v>19549.07</v>
       </c>
+      <c r="M4" t="n">
+        <v>19598.71</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -649,6 +663,9 @@
       <c r="L5" t="n">
         <v>59921.46</v>
       </c>
+      <c r="M5" t="n">
+        <v>60166.94</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -689,6 +706,9 @@
       <c r="L6" t="n">
         <v>113543.95</v>
       </c>
+      <c r="M6" t="n">
+        <v>113891.06</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -729,6 +749,9 @@
       <c r="L7" t="n">
         <v>52821.1</v>
       </c>
+      <c r="M7" t="n">
+        <v>52514.41</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -769,6 +792,9 @@
       <c r="L8" t="n">
         <v>3537.14</v>
       </c>
+      <c r="M8" t="n">
+        <v>3463.36</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -809,6 +835,9 @@
       <c r="L9" t="n">
         <v>2253758.82</v>
       </c>
+      <c r="M9" t="n">
+        <v>2253337.71</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -849,6 +878,9 @@
       <c r="L10" t="n">
         <v>491.57</v>
       </c>
+      <c r="M10" t="n">
+        <v>487.88</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -889,6 +921,9 @@
       <c r="L11" t="n">
         <v>168899.37</v>
       </c>
+      <c r="M11" t="n">
+        <v>169278.4</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -929,6 +964,9 @@
       <c r="L12" t="n">
         <v>189651.84</v>
       </c>
+      <c r="M12" t="n">
+        <v>189680.98</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -968,6 +1006,9 @@
       </c>
       <c r="L13" t="n">
         <v>233525.57</v>
+      </c>
+      <c r="M13" t="n">
+        <v>233267.53</v>
       </c>
     </row>
     <row r="14">
@@ -1007,6 +1048,9 @@
       <c r="L14" t="n">
         <v>129596.26</v>
       </c>
+      <c r="M14" t="n">
+        <v>129586.24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1045,6 +1089,9 @@
       <c r="L15" t="n">
         <v>82263.17999999999</v>
       </c>
+      <c r="M15" t="n">
+        <v>82100.46000000001</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1083,6 +1130,9 @@
       <c r="L16" t="n">
         <v>52335.43</v>
       </c>
+      <c r="M16" t="n">
+        <v>52189.3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1121,6 +1171,9 @@
       <c r="L17" t="n">
         <v>260864.94</v>
       </c>
+      <c r="M17" t="n">
+        <v>260632.13</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1159,6 +1212,9 @@
       <c r="L18" t="n">
         <v>15013.05</v>
       </c>
+      <c r="M18" t="n">
+        <v>15790.61</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1197,6 +1253,9 @@
       <c r="L19" t="n">
         <v>80782.25999999999</v>
       </c>
+      <c r="M19" t="n">
+        <v>80764.67</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1235,6 +1294,9 @@
       <c r="L20" t="n">
         <v>77081.98</v>
       </c>
+      <c r="M20" t="n">
+        <v>76839.92999999999</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1273,6 +1335,9 @@
       <c r="L21" t="n">
         <v>494312.86</v>
       </c>
+      <c r="M21" t="n">
+        <v>483791.34</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1313,6 +1378,9 @@
       <c r="L22" t="n">
         <v>109446.95</v>
       </c>
+      <c r="M22" t="n">
+        <v>108811.32</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1353,6 +1421,9 @@
       <c r="L23" t="n">
         <v>202163.93</v>
       </c>
+      <c r="M23" t="n">
+        <v>201935.94</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1393,6 +1464,9 @@
       <c r="L24" t="n">
         <v>1698891.21</v>
       </c>
+      <c r="M24" t="n">
+        <v>1701309.96</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1433,6 +1507,9 @@
       <c r="L25" t="n">
         <v>12356.92</v>
       </c>
+      <c r="M25" t="n">
+        <v>12332.89</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1473,6 +1550,9 @@
       <c r="L26" t="n">
         <v>216.06</v>
       </c>
+      <c r="M26" t="n">
+        <v>207.72</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1513,6 +1593,9 @@
       <c r="L27" t="n">
         <v>52189.51</v>
       </c>
+      <c r="M27" t="n">
+        <v>52045.21</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1553,6 +1636,9 @@
       <c r="L28" t="n">
         <v>176264.56</v>
       </c>
+      <c r="M28" t="n">
+        <v>176414.37</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1593,6 +1679,9 @@
       <c r="L29" t="n">
         <v>21537.56</v>
       </c>
+      <c r="M29" t="n">
+        <v>18975.35</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1633,6 +1722,9 @@
       <c r="L30" t="n">
         <v>1768.09</v>
       </c>
+      <c r="M30" t="n">
+        <v>1766.03</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1673,6 +1765,9 @@
       <c r="L31" t="n">
         <v>10837.76</v>
       </c>
+      <c r="M31" t="n">
+        <v>10785.2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1713,6 +1808,9 @@
       <c r="L32" t="n">
         <v>5688.93</v>
       </c>
+      <c r="M32" t="n">
+        <v>5672.71</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1752,6 +1850,9 @@
       </c>
       <c r="L33" t="n">
         <v>9236.809999999999</v>
+      </c>
+      <c r="M33" t="n">
+        <v>9331.18</v>
       </c>
     </row>
     <row r="34">
@@ -1791,6 +1892,9 @@
       <c r="L34" t="n">
         <v>80755.10000000001</v>
       </c>
+      <c r="M34" t="n">
+        <v>80850.17999999999</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1831,6 +1935,9 @@
       <c r="L35" t="n">
         <v>97417.99000000001</v>
       </c>
+      <c r="M35" t="n">
+        <v>97021.21000000001</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1871,6 +1978,9 @@
       <c r="L36" t="n">
         <v>18902.23</v>
       </c>
+      <c r="M36" t="n">
+        <v>18865.63</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1911,6 +2021,9 @@
       <c r="L37" t="n">
         <v>35909.38</v>
       </c>
+      <c r="M37" t="n">
+        <v>35795.43</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1951,6 +2064,9 @@
       <c r="L38" t="n">
         <v>26239.08</v>
       </c>
+      <c r="M38" t="n">
+        <v>25555.56</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1991,6 +2107,9 @@
       <c r="L39" t="n">
         <v>571348.4</v>
       </c>
+      <c r="M39" t="n">
+        <v>571787.83</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2030,6 +2149,9 @@
       </c>
       <c r="L40" t="n">
         <v>156123.55</v>
+      </c>
+      <c r="M40" t="n">
+        <v>156969.64</v>
       </c>
     </row>
     <row r="41">
@@ -2055,6 +2177,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2095,6 +2218,9 @@
       <c r="L42" t="n">
         <v>1264914.29</v>
       </c>
+      <c r="M42" t="n">
+        <v>1265018.75</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2135,6 +2261,9 @@
       <c r="L43" t="n">
         <v>53925.52</v>
       </c>
+      <c r="M43" t="n">
+        <v>54013.51</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2175,6 +2304,9 @@
       <c r="L44" t="n">
         <v>222847.96</v>
       </c>
+      <c r="M44" t="n">
+        <v>222581.39</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2214,6 +2346,9 @@
       </c>
       <c r="L45" t="n">
         <v>9136766.220000001</v>
+      </c>
+      <c r="M45" t="n">
+        <v>9125837.140000001</v>
       </c>
     </row>
   </sheetData>
